--- a/data_year/zb/卫生/每万人口医疗卫生机构床位数.xlsx
+++ b/data_year/zb/卫生/每万人口医疗卫生机构床位数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,622 +483,390 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>248.4534</v>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
       <c r="D2" t="n">
-        <v>317.7</v>
+        <v>478.6831</v>
       </c>
       <c r="E2" t="n">
-        <v>294.79</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+        <v>440.1512</v>
+      </c>
+      <c r="F2" t="n">
+        <v>230.2297</v>
+      </c>
+      <c r="G2" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>35.8</v>
+      </c>
       <c r="I2" t="n">
-        <v>23.8</v>
+        <v>32.881212601131</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>268.4667</v>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
       <c r="D3" t="n">
-        <v>320.1</v>
+        <v>515.9888999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>290.2</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+        <v>474.233</v>
+      </c>
+      <c r="F3" t="n">
+        <v>247.5222</v>
+      </c>
+      <c r="G3" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>38.4</v>
+      </c>
       <c r="I3" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>35.2576484145571</v>
+      </c>
+      <c r="J3" t="n">
+        <v>11.6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>299.1372</v>
+      </c>
+      <c r="C4" t="n">
+        <v>31.1</v>
+      </c>
       <c r="D4" t="n">
-        <v>313.6</v>
+        <v>572.4775</v>
       </c>
       <c r="E4" t="n">
-        <v>290.7153</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+        <v>527.13</v>
+      </c>
+      <c r="F4" t="n">
+        <v>273.3403</v>
+      </c>
+      <c r="G4" t="n">
+        <v>68.8</v>
+      </c>
       <c r="H4" t="n">
-        <v>24.9</v>
+        <v>42.4</v>
       </c>
       <c r="I4" t="n">
-        <v>23.213480535849</v>
+        <v>38.9964046340273</v>
       </c>
       <c r="J4" t="n">
-        <v>7.43395746967035</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>323.3426</v>
+      </c>
+      <c r="C5" t="n">
+        <v>33.5</v>
+      </c>
       <c r="D5" t="n">
-        <v>316.4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>295.516</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+        <v>618.1891000000001</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>294.8465</v>
+      </c>
+      <c r="G5" t="n">
+        <v>73.59999999999999</v>
+      </c>
       <c r="H5" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="I5" t="n">
-        <v>23.4470778333824</v>
-      </c>
+        <v>45.5</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>7.5923256673157</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>343.1334</v>
+      </c>
+      <c r="C6" t="n">
+        <v>35.399856686</v>
+      </c>
       <c r="D6" t="n">
-        <v>326.8</v>
-      </c>
-      <c r="E6" t="n">
-        <v>304.5847</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+        <v>660.1214</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>316.988</v>
+      </c>
+      <c r="G6" t="n">
+        <v>78.372316359</v>
+      </c>
       <c r="H6" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="I6" t="n">
-        <v>23.9759082003232</v>
-      </c>
+        <v>48.5</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>7.60956602461669</v>
+        <v>13.377736369</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>359.702</v>
+      </c>
+      <c r="C7" t="n">
+        <v>37.1</v>
+      </c>
       <c r="D7" t="n">
-        <v>336.75</v>
-      </c>
-      <c r="E7" t="n">
-        <v>313.493</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+        <v>701.5214</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>341.8194</v>
+      </c>
+      <c r="G7" t="n">
+        <v>82.7</v>
+      </c>
       <c r="H7" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>24.5235685294348</v>
-      </c>
+        <v>51.1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>7.8016600654428</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>375.5497</v>
+      </c>
+      <c r="C8" t="n">
+        <v>39.091163561</v>
+      </c>
       <c r="D8" t="n">
-        <v>351.18</v>
-      </c>
-      <c r="E8" t="n">
-        <v>327.071</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+        <v>741.0453</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>365.4956</v>
+      </c>
+      <c r="G8" t="n">
+        <v>84.129947839</v>
+      </c>
       <c r="H8" t="n">
-        <v>27.0349503797038</v>
-      </c>
-      <c r="I8" t="n">
-        <v>25.2925194231293</v>
-      </c>
+        <v>53.68298549</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>7.97890951582133</v>
+        <v>12.739545062</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>186.9768</v>
+        <v>401.8228</v>
       </c>
       <c r="C9" t="n">
-        <v>20.0059461411518</v>
+        <v>41.865341576</v>
       </c>
       <c r="D9" t="n">
-        <v>370.1076</v>
-      </c>
-      <c r="E9" t="n">
-        <v>343.826</v>
-      </c>
+        <v>794.0252</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>183.1308</v>
+        <v>392.2024</v>
       </c>
       <c r="G9" t="n">
-        <v>49.0027797269303</v>
+        <v>87.536872645</v>
       </c>
       <c r="H9" t="n">
-        <v>28.2887400084833</v>
-      </c>
-      <c r="I9" t="n">
-        <v>26.2799367593553</v>
-      </c>
+        <v>57.215495251</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>8.51407309599702</v>
+        <v>13.461954643</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>207.5126</v>
+        <v>426.2661</v>
       </c>
       <c r="C10" t="n">
-        <v>22</v>
+        <v>45.6</v>
       </c>
       <c r="D10" t="n">
-        <v>403.8707</v>
-      </c>
-      <c r="E10" t="n">
-        <v>374.8245</v>
-      </c>
+        <v>840.4088</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>196.3581</v>
+        <v>414.1427</v>
       </c>
       <c r="G10" t="n">
-        <v>51.7</v>
+        <v>87</v>
       </c>
       <c r="H10" t="n">
-        <v>30.4642533868389</v>
-      </c>
-      <c r="I10" t="n">
-        <v>28.2732779169055</v>
-      </c>
+        <v>60.279522424</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>9.6</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>229.031</v>
+        <v>445.5416</v>
       </c>
       <c r="C11" t="n">
-        <v>24.1</v>
+        <v>48.085729326</v>
       </c>
       <c r="D11" t="n">
-        <v>441.6612</v>
-      </c>
-      <c r="E11" t="n">
-        <v>408.0662</v>
-      </c>
+        <v>880.6956</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>212.6302</v>
+        <v>435.154</v>
       </c>
       <c r="G11" t="n">
-        <v>55.4</v>
+        <v>87.80843185800001</v>
       </c>
       <c r="H11" t="n">
-        <v>33.1527698543762</v>
-      </c>
-      <c r="I11" t="n">
-        <v>30.6310013511485</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>10.5</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>248.4534</v>
+        <v>459.8171</v>
       </c>
       <c r="C12" t="n">
-        <v>26</v>
+        <v>49.5</v>
       </c>
       <c r="D12" t="n">
-        <v>478.6831</v>
-      </c>
-      <c r="E12" t="n">
-        <v>440.1512</v>
-      </c>
+        <v>910.0700000000001</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>230.2297</v>
+        <v>450.2529</v>
       </c>
       <c r="G12" t="n">
-        <v>59.4</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="I12" t="n">
-        <v>32.881212601131</v>
-      </c>
+        <v>64.59999999999999</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>11.2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>268.4667</v>
+        <v>447.9736</v>
       </c>
       <c r="C13" t="n">
-        <v>28</v>
+        <v>60.0880091005891</v>
       </c>
       <c r="D13" t="n">
-        <v>515.9888999999999</v>
-      </c>
-      <c r="E13" t="n">
-        <v>474.233</v>
-      </c>
+        <v>945.011</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>247.5222</v>
+        <v>497.0374</v>
       </c>
       <c r="G13" t="n">
-        <v>62.4</v>
+        <v>74.7345054156047</v>
       </c>
       <c r="H13" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>35.2576484145571</v>
-      </c>
-      <c r="J13" t="n">
-        <v>11.6</v>
-      </c>
+        <v>66.99354884446331</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>299.1372</v>
-      </c>
-      <c r="C14" t="n">
-        <v>31.1</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>572.4775</v>
-      </c>
-      <c r="E14" t="n">
-        <v>527.13</v>
-      </c>
-      <c r="F14" t="n">
-        <v>273.3403</v>
-      </c>
-      <c r="G14" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="H14" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="I14" t="n">
-        <v>38.9964046340273</v>
-      </c>
-      <c r="J14" t="n">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>323.3426</v>
-      </c>
-      <c r="C15" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="D15" t="n">
-        <v>618.1891000000001</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>294.8465</v>
-      </c>
-      <c r="G15" t="n">
-        <v>73.59999999999999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>343.1334</v>
-      </c>
-      <c r="C16" t="n">
-        <v>35.399856686</v>
-      </c>
-      <c r="D16" t="n">
-        <v>660.1214</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>316.988</v>
-      </c>
-      <c r="G16" t="n">
-        <v>78.372316359</v>
-      </c>
-      <c r="H16" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>13.377736369</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>359.702</v>
-      </c>
-      <c r="C17" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>701.5214</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>341.8194</v>
-      </c>
-      <c r="G17" t="n">
-        <v>82.7</v>
-      </c>
-      <c r="H17" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>375.5497</v>
-      </c>
-      <c r="C18" t="n">
-        <v>39.091163561</v>
-      </c>
-      <c r="D18" t="n">
-        <v>741.0453</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>365.4956</v>
-      </c>
-      <c r="G18" t="n">
-        <v>84.129947839</v>
-      </c>
-      <c r="H18" t="n">
-        <v>53.68298549</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>12.739545062</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>401.8228</v>
-      </c>
-      <c r="C19" t="n">
-        <v>41.865341576</v>
-      </c>
-      <c r="D19" t="n">
-        <v>794.0252</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>392.2024</v>
-      </c>
-      <c r="G19" t="n">
-        <v>87.536872645</v>
-      </c>
-      <c r="H19" t="n">
-        <v>57.215495251</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>13.461954643</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>426.2661</v>
-      </c>
-      <c r="C20" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="D20" t="n">
-        <v>840.4088</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>414.1427</v>
-      </c>
-      <c r="G20" t="n">
-        <v>87</v>
-      </c>
-      <c r="H20" t="n">
-        <v>60.279522424</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>445.5416</v>
-      </c>
-      <c r="C21" t="n">
-        <v>48.085729326</v>
-      </c>
-      <c r="D21" t="n">
-        <v>880.6956</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>435.154</v>
-      </c>
-      <c r="G21" t="n">
-        <v>87.80843185800001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>63</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>459.8171</v>
-      </c>
-      <c r="C22" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="D22" t="n">
-        <v>910.0700000000001</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>450.2529</v>
-      </c>
-      <c r="G22" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>15</v>
-      </c>
+        <v>975</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
